--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1137376666666667</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N2">
-        <v>0.341213</v>
+        <v>0.632891</v>
       </c>
       <c r="O2">
-        <v>0.0008124832852874852</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P2">
-        <v>0.000813605578437685</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q2">
-        <v>17.25696936386611</v>
+        <v>30.54401689491833</v>
       </c>
       <c r="R2">
-        <v>155.312724274795</v>
+        <v>274.896152054265</v>
       </c>
       <c r="S2">
-        <v>0.000219430566832266</v>
+        <v>0.000766997048273246</v>
       </c>
       <c r="T2">
-        <v>0.0002264562510148862</v>
+        <v>0.00079227290257781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.09946</v>
       </c>
       <c r="O3">
-        <v>0.004999153485153449</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P3">
-        <v>0.005006058877319394</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q3">
-        <v>106.1809394737667</v>
+        <v>101.3222525051</v>
       </c>
       <c r="R3">
-        <v>955.6284552639002</v>
+        <v>911.9002725459</v>
       </c>
       <c r="S3">
-        <v>0.001350141107875929</v>
+        <v>0.002544323782401313</v>
       </c>
       <c r="T3">
-        <v>0.001393369656946579</v>
+        <v>0.00262817020315664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.57662766666667</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N4">
-        <v>97.729883</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O4">
-        <v>0.2327106423571246</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P4">
-        <v>0.2330320884282319</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q4">
-        <v>4942.723744010983</v>
+        <v>4685.988594521056</v>
       </c>
       <c r="R4">
-        <v>44484.51369609885</v>
+        <v>42173.89735068951</v>
       </c>
       <c r="S4">
-        <v>0.06284908143341854</v>
+        <v>0.1176708169264309</v>
       </c>
       <c r="T4">
-        <v>0.06486137080446366</v>
+        <v>0.1215485768620492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5793</v>
+        <v>33.562467</v>
       </c>
       <c r="N5">
-        <v>1.1586</v>
+        <v>100.687401</v>
       </c>
       <c r="O5">
-        <v>0.004138220705251912</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P5">
-        <v>0.002762624586923423</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q5">
-        <v>87.89491331650001</v>
+        <v>4859.284896213434</v>
       </c>
       <c r="R5">
-        <v>527.3694798990001</v>
+        <v>43733.56406592091</v>
       </c>
       <c r="S5">
-        <v>0.001117625594856571</v>
+        <v>0.1220224957619949</v>
       </c>
       <c r="T5">
-        <v>0.0007689396723625629</v>
+        <v>0.1260436622471893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.7260716666667</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
-        <v>455.178215</v>
+        <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.2700739458961593</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J6">
-        <v>0.2783366498663096</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>106.018215</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N6">
-        <v>318.054645</v>
+        <v>0.632891</v>
       </c>
       <c r="O6">
-        <v>0.7573395001671824</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P6">
-        <v>0.7583856225290876</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q6">
-        <v>16085.72728706208</v>
+        <v>17.35152340535366</v>
       </c>
       <c r="R6">
-        <v>144771.5455835587</v>
+        <v>156.163710648183</v>
       </c>
       <c r="S6">
-        <v>0.204537667193176</v>
+        <v>0.0004357176490812044</v>
       </c>
       <c r="T6">
-        <v>0.2110865134815219</v>
+        <v>0.0004500764211793471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1137376666666667</v>
+        <v>0.69982</v>
       </c>
       <c r="N7">
-        <v>0.341213</v>
+        <v>2.09946</v>
       </c>
       <c r="O7">
-        <v>0.0008124832852874852</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P7">
-        <v>0.000813605578437685</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q7">
-        <v>9.354794673507667</v>
+        <v>57.55940490322</v>
       </c>
       <c r="R7">
-        <v>84.19315206156901</v>
+        <v>518.0346441289801</v>
       </c>
       <c r="S7">
-        <v>0.0001189506601376601</v>
+        <v>0.001445385975689377</v>
       </c>
       <c r="T7">
-        <v>0.0001227591986813362</v>
+        <v>0.001493017665299699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.69982</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N8">
-        <v>2.09946</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O8">
-        <v>0.004999153485153449</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P8">
-        <v>0.005006058877319394</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q8">
-        <v>57.55940490322001</v>
+        <v>2662.028411481791</v>
       </c>
       <c r="R8">
-        <v>518.0346441289801</v>
+        <v>23958.25570333612</v>
       </c>
       <c r="S8">
-        <v>0.0007318951884383417</v>
+        <v>0.06684673928286573</v>
       </c>
       <c r="T8">
-        <v>0.0007553288628027601</v>
+        <v>0.06904962708621876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.57662766666667</v>
+        <v>33.562467</v>
       </c>
       <c r="N9">
-        <v>97.729883</v>
+        <v>100.687401</v>
       </c>
       <c r="O9">
-        <v>0.2327106423571246</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P9">
-        <v>0.2330320884282319</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q9">
-        <v>2679.390846570698</v>
+        <v>2760.475018724757</v>
       </c>
       <c r="R9">
-        <v>24114.51761913628</v>
+        <v>24844.27516852281</v>
       </c>
       <c r="S9">
-        <v>0.03406972799402803</v>
+        <v>0.06931885214960634</v>
       </c>
       <c r="T9">
-        <v>0.03516056575892696</v>
+        <v>0.07160320671320941</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.24887100000001</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H10">
-        <v>246.746613</v>
+        <v>491.577271</v>
       </c>
       <c r="I10">
-        <v>0.146403824289839</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J10">
-        <v>0.150882936320401</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.5793</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N10">
-        <v>1.1586</v>
+        <v>0.632891</v>
       </c>
       <c r="O10">
-        <v>0.004138220705251912</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P10">
-        <v>0.002762624586923423</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q10">
-        <v>47.64677097030001</v>
+        <v>34.56831451338456</v>
       </c>
       <c r="R10">
-        <v>285.8806258218</v>
+        <v>311.114830620461</v>
       </c>
       <c r="S10">
-        <v>0.0006058513370042746</v>
+        <v>0.0008680520079190476</v>
       </c>
       <c r="T10">
-        <v>0.0004168329096259409</v>
+        <v>0.0008966580581383301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.24887100000001</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H11">
-        <v>246.746613</v>
+        <v>491.577271</v>
       </c>
       <c r="I11">
-        <v>0.146403824289839</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J11">
-        <v>0.150882936320401</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>106.018215</v>
+        <v>0.69982</v>
       </c>
       <c r="N11">
-        <v>318.054645</v>
+        <v>2.09946</v>
       </c>
       <c r="O11">
-        <v>0.7573395001671824</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P11">
-        <v>0.7583856225290876</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q11">
-        <v>8719.878489185267</v>
+        <v>114.6718685970733</v>
       </c>
       <c r="R11">
-        <v>78478.90640266739</v>
+        <v>1032.04681737366</v>
       </c>
       <c r="S11">
-        <v>0.1108773991102307</v>
+        <v>0.002879548719361981</v>
       </c>
       <c r="T11">
-        <v>0.114427449590364</v>
+        <v>0.002974442244776903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1137376666666667</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N12">
-        <v>0.341213</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O12">
-        <v>0.0008124832852874852</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P12">
-        <v>0.000813605578437685</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q12">
-        <v>14.040269033791</v>
+        <v>5303.386522434998</v>
       </c>
       <c r="R12">
-        <v>126.362421304119</v>
+        <v>47730.47870191498</v>
       </c>
       <c r="S12">
-        <v>0.0001785286933992713</v>
+        <v>0.1331744224262955</v>
       </c>
       <c r="T12">
-        <v>0.0001842447895451555</v>
+        <v>0.1375630928989129</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.69982</v>
+        <v>33.562467</v>
       </c>
       <c r="N13">
-        <v>2.09946</v>
+        <v>100.687401</v>
       </c>
       <c r="O13">
-        <v>0.004999153485153449</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P13">
-        <v>0.005006058877319394</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q13">
-        <v>86.38880472222</v>
+        <v>5499.515311962519</v>
       </c>
       <c r="R13">
-        <v>777.49924249998</v>
+        <v>49495.63780766266</v>
       </c>
       <c r="S13">
-        <v>0.001098474708302539</v>
+        <v>0.138099452528477</v>
       </c>
       <c r="T13">
-        <v>0.001133645452718602</v>
+        <v>0.1426504239429149</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H14">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I14">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J14">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>32.57662766666667</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N14">
-        <v>97.729883</v>
+        <v>0.632891</v>
       </c>
       <c r="O14">
-        <v>0.2327106423571246</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P14">
-        <v>0.2330320884282319</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q14">
-        <v>4021.399682781481</v>
+        <v>12.0299519394215</v>
       </c>
       <c r="R14">
-        <v>36192.59714503333</v>
+        <v>72.17971163652899</v>
       </c>
       <c r="S14">
-        <v>0.0511340081358379</v>
+        <v>0.0003020865808236377</v>
       </c>
       <c r="T14">
-        <v>0.05277120662345126</v>
+        <v>0.0002080277560022504</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,87 +1337,87 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H15">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I15">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J15">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5793</v>
+        <v>0.69982</v>
       </c>
       <c r="N15">
-        <v>1.1586</v>
+        <v>2.09946</v>
       </c>
       <c r="O15">
-        <v>0.004138220705251912</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P15">
-        <v>0.002762624586923423</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q15">
-        <v>71.5112951553</v>
+        <v>39.90640236429</v>
       </c>
       <c r="R15">
-        <v>429.0677709318001</v>
+        <v>239.43841418574</v>
       </c>
       <c r="S15">
-        <v>0.0009093001036261622</v>
+        <v>0.001002097822493912</v>
       </c>
       <c r="T15">
-        <v>0.0006256092621530165</v>
+        <v>0.0006900808395386956</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H16">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I16">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J16">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>106.018215</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N16">
-        <v>318.054645</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O16">
-        <v>0.7573395001671824</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P16">
-        <v>0.7583856225290876</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q16">
-        <v>13087.34656430702</v>
+        <v>1845.605893118281</v>
       </c>
       <c r="R16">
-        <v>117786.1190787631</v>
+        <v>11073.63535870969</v>
       </c>
       <c r="S16">
-        <v>0.1664118313235987</v>
+        <v>0.04634538663226517</v>
       </c>
       <c r="T16">
-        <v>0.1717399721929825</v>
+        <v>0.03191511107802382</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1137376666666667</v>
+        <v>33.562467</v>
       </c>
       <c r="N17">
-        <v>0.341213</v>
+        <v>100.687401</v>
       </c>
       <c r="O17">
-        <v>0.0008124832852874852</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P17">
-        <v>0.000813605578437685</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q17">
-        <v>5.690558481687501</v>
+        <v>1913.859724558036</v>
       </c>
       <c r="R17">
-        <v>34.143350890125</v>
+        <v>11483.15834734822</v>
       </c>
       <c r="S17">
-        <v>7.235815553126198E-05</v>
+        <v>0.04805932253754362</v>
       </c>
       <c r="T17">
-        <v>4.978326969516864E-05</v>
+        <v>0.03309538939205763</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H18">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I18">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J18">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.69982</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N18">
-        <v>2.09946</v>
+        <v>0.632891</v>
       </c>
       <c r="O18">
-        <v>0.004999153485153449</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P18">
-        <v>0.005006058877319394</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q18">
-        <v>35.01361293375</v>
+        <v>31.19933930998889</v>
       </c>
       <c r="R18">
-        <v>210.0816776025</v>
+        <v>280.7940537899</v>
       </c>
       <c r="S18">
-        <v>0.0004452147286640993</v>
+        <v>0.000783452983317927</v>
       </c>
       <c r="T18">
-        <v>0.0003063130167790171</v>
+        <v>0.0008092711315173255</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H19">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I19">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J19">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>32.57662766666667</v>
+        <v>0.69982</v>
       </c>
       <c r="N19">
-        <v>97.729883</v>
+        <v>2.09946</v>
       </c>
       <c r="O19">
-        <v>0.2327106423571246</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P19">
-        <v>0.2330320884282319</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q19">
-        <v>1629.884015614813</v>
+        <v>103.4961231993333</v>
       </c>
       <c r="R19">
-        <v>9779.304093688876</v>
+        <v>931.4651087940001</v>
       </c>
       <c r="S19">
-        <v>0.02072474986054469</v>
+        <v>0.002598912293517612</v>
       </c>
       <c r="T19">
-        <v>0.01425887384908042</v>
+        <v>0.002684557640692259</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H20">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I20">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J20">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5793</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N20">
-        <v>1.1586</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O20">
-        <v>0.004138220705251912</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P20">
-        <v>0.002762624586923423</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q20">
-        <v>28.98371863125</v>
+        <v>4786.526561525178</v>
       </c>
       <c r="R20">
-        <v>115.934874525</v>
+        <v>43078.7390537266</v>
       </c>
       <c r="S20">
-        <v>0.0003685417569019358</v>
+        <v>0.1201954463553906</v>
       </c>
       <c r="T20">
-        <v>0.0001690407348747627</v>
+        <v>0.1241564036980434</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H21">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I21">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J21">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>106.018215</v>
+        <v>33.562467</v>
       </c>
       <c r="N21">
-        <v>318.054645</v>
+        <v>100.687401</v>
       </c>
       <c r="O21">
-        <v>0.7573395001671824</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P21">
-        <v>0.7583856225290876</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q21">
-        <v>5304.336463572187</v>
+        <v>4963.5409383921</v>
       </c>
       <c r="R21">
-        <v>31826.01878143313</v>
+        <v>44671.8684455289</v>
       </c>
       <c r="S21">
-        <v>0.06744715901900079</v>
+        <v>0.124640490536251</v>
       </c>
       <c r="T21">
-        <v>0.04640444581489017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H22">
-        <v>463.02893</v>
-      </c>
-      <c r="I22">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J22">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.1137376666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.341213</v>
-      </c>
-      <c r="O22">
-        <v>0.0008124832852874852</v>
-      </c>
-      <c r="P22">
-        <v>0.000813605578437685</v>
-      </c>
-      <c r="Q22">
-        <v>17.55461003245444</v>
-      </c>
-      <c r="R22">
-        <v>157.99149029209</v>
-      </c>
-      <c r="S22">
-        <v>0.0002232152093870257</v>
-      </c>
-      <c r="T22">
-        <v>0.0002303620695011385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H23">
-        <v>463.02893</v>
-      </c>
-      <c r="I23">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J23">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.69982</v>
-      </c>
-      <c r="N23">
-        <v>2.09946</v>
-      </c>
-      <c r="O23">
-        <v>0.004999153485153449</v>
-      </c>
-      <c r="P23">
-        <v>0.005006058877319394</v>
-      </c>
-      <c r="Q23">
-        <v>108.0123019308667</v>
-      </c>
-      <c r="R23">
-        <v>972.1107173778</v>
-      </c>
-      <c r="S23">
-        <v>0.00137342775187254</v>
-      </c>
-      <c r="T23">
-        <v>0.001417401888072437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H24">
-        <v>463.02893</v>
-      </c>
-      <c r="I24">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J24">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>32.57662766666667</v>
-      </c>
-      <c r="N24">
-        <v>97.729883</v>
-      </c>
-      <c r="O24">
-        <v>0.2327106423571246</v>
-      </c>
-      <c r="P24">
-        <v>0.2330320884282319</v>
-      </c>
-      <c r="Q24">
-        <v>5027.973683835021</v>
-      </c>
-      <c r="R24">
-        <v>45251.76315451519</v>
-      </c>
-      <c r="S24">
-        <v>0.06393307493329541</v>
-      </c>
-      <c r="T24">
-        <v>0.06598007139230959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H25">
-        <v>463.02893</v>
-      </c>
-      <c r="I25">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J25">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.5</v>
-      </c>
-      <c r="M25">
-        <v>0.5793</v>
-      </c>
-      <c r="N25">
-        <v>1.1586</v>
-      </c>
-      <c r="O25">
-        <v>0.004138220705251912</v>
-      </c>
-      <c r="P25">
-        <v>0.002762624586923423</v>
-      </c>
-      <c r="Q25">
-        <v>89.410886383</v>
-      </c>
-      <c r="R25">
-        <v>536.4653182980001</v>
-      </c>
-      <c r="S25">
-        <v>0.001136901912862968</v>
-      </c>
-      <c r="T25">
-        <v>0.0007822020079071404</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H26">
-        <v>463.02893</v>
-      </c>
-      <c r="I26">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J26">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>106.018215</v>
-      </c>
-      <c r="N26">
-        <v>318.054645</v>
-      </c>
-      <c r="O26">
-        <v>0.7573395001671824</v>
-      </c>
-      <c r="P26">
-        <v>0.7583856225290876</v>
-      </c>
-      <c r="Q26">
-        <v>16363.16688398665</v>
-      </c>
-      <c r="R26">
-        <v>147268.5019558799</v>
-      </c>
-      <c r="S26">
-        <v>0.2080654435211763</v>
-      </c>
-      <c r="T26">
-        <v>0.2147272414493291</v>
+        <v>0.1287479312185016</v>
       </c>
     </row>
   </sheetData>
